--- a/data/nuc_cell_seg_delivery_20170210/nuc_cell_seg_delivery_20170210.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/nuc_cell_seg_delivery_20170210.xlsx
@@ -5082,9 +5082,6 @@
     <t>\\aibsdata\aics\AssayDevelopment\MicroscopyOtherData\Liya\2016\20160908_C02_001</t>
   </si>
   <si>
-    <t>\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_10_Nuc_Cell_Seg_For_Release_Group_1\20170908_C02\nuc_cell_segmentation</t>
-  </si>
-  <si>
     <t>20160908_C02_001_02.czi</t>
   </si>
   <si>
@@ -5212,6 +5209,9 @@
   </si>
   <si>
     <t>20160908_C02_001_46.czi</t>
+  </si>
+  <si>
+    <t>\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_10_Nuc_Cell_Seg_For_Release_Group_1\20160908_C02\nuc_cell_segmentation</t>
   </si>
 </sst>
 </file>
@@ -67636,8 +67636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67742,7 +67742,7 @@
         <v>1677</v>
       </c>
       <c r="E2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F2" s="7">
         <v>6.5000000000000002E-2</v>
@@ -67769,7 +67769,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O2" s="11" t="str">
         <f>CONCATENATE(E2,"_nucWholeIndex.tiff")</f>
@@ -67814,7 +67814,7 @@
         <v>1677</v>
       </c>
       <c r="E3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F3" s="7">
         <v>6.5000000000000002E-2</v>
@@ -67841,7 +67841,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O3" s="11" t="str">
         <f t="shared" ref="O3:O44" si="0">CONCATENATE(E3,"_nucWholeIndex.tiff")</f>
@@ -67886,7 +67886,7 @@
         <v>1677</v>
       </c>
       <c r="E4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F4" s="7">
         <v>6.5000000000000002E-2</v>
@@ -67913,7 +67913,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -67958,7 +67958,7 @@
         <v>1677</v>
       </c>
       <c r="E5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F5" s="7">
         <v>6.5000000000000002E-2</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68030,7 +68030,7 @@
         <v>1677</v>
       </c>
       <c r="E6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F6" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68057,7 +68057,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68102,7 +68102,7 @@
         <v>1677</v>
       </c>
       <c r="E7" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F7" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68129,7 +68129,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68174,7 +68174,7 @@
         <v>1677</v>
       </c>
       <c r="E8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F8" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68201,7 +68201,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68246,7 +68246,7 @@
         <v>1677</v>
       </c>
       <c r="E9" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F9" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68273,7 +68273,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68318,7 +68318,7 @@
         <v>1677</v>
       </c>
       <c r="E10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F10" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68345,7 +68345,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68390,7 +68390,7 @@
         <v>1677</v>
       </c>
       <c r="E11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F11" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68417,7 +68417,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68462,7 +68462,7 @@
         <v>1677</v>
       </c>
       <c r="E12" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F12" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68489,7 +68489,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68534,7 +68534,7 @@
         <v>1677</v>
       </c>
       <c r="E13" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F13" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68561,7 +68561,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68606,7 +68606,7 @@
         <v>1677</v>
       </c>
       <c r="E14" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F14" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68633,7 +68633,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68678,7 +68678,7 @@
         <v>1677</v>
       </c>
       <c r="E15" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F15" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68705,7 +68705,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68750,7 +68750,7 @@
         <v>1677</v>
       </c>
       <c r="E16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F16" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68777,7 +68777,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68822,7 +68822,7 @@
         <v>1677</v>
       </c>
       <c r="E17" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F17" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68849,7 +68849,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68894,7 +68894,7 @@
         <v>1677</v>
       </c>
       <c r="E18" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F18" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68921,7 +68921,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -68966,7 +68966,7 @@
         <v>1677</v>
       </c>
       <c r="E19" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F19" s="7">
         <v>6.5000000000000002E-2</v>
@@ -68993,7 +68993,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69038,7 +69038,7 @@
         <v>1677</v>
       </c>
       <c r="E20" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F20" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69065,7 +69065,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69110,7 +69110,7 @@
         <v>1677</v>
       </c>
       <c r="E21" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F21" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69137,7 +69137,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69182,7 +69182,7 @@
         <v>1677</v>
       </c>
       <c r="E22" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F22" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69209,7 +69209,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69254,7 +69254,7 @@
         <v>1677</v>
       </c>
       <c r="E23" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F23" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69281,7 +69281,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69326,7 +69326,7 @@
         <v>1677</v>
       </c>
       <c r="E24" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69353,7 +69353,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69398,7 +69398,7 @@
         <v>1677</v>
       </c>
       <c r="E25" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F25" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69425,7 +69425,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69470,7 +69470,7 @@
         <v>1677</v>
       </c>
       <c r="E26" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F26" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69497,7 +69497,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69542,7 +69542,7 @@
         <v>1677</v>
       </c>
       <c r="E27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F27" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69569,7 +69569,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69614,7 +69614,7 @@
         <v>1677</v>
       </c>
       <c r="E28" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F28" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69641,7 +69641,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69686,7 +69686,7 @@
         <v>1677</v>
       </c>
       <c r="E29" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F29" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69713,7 +69713,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69758,7 +69758,7 @@
         <v>1677</v>
       </c>
       <c r="E30" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F30" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69785,7 +69785,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69830,7 +69830,7 @@
         <v>1677</v>
       </c>
       <c r="E31" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F31" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69857,7 +69857,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69902,7 +69902,7 @@
         <v>1677</v>
       </c>
       <c r="E32" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F32" s="7">
         <v>6.5000000000000002E-2</v>
@@ -69929,7 +69929,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -69974,7 +69974,7 @@
         <v>1677</v>
       </c>
       <c r="E33" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F33" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70001,7 +70001,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70046,7 +70046,7 @@
         <v>1677</v>
       </c>
       <c r="E34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F34" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70073,7 +70073,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70118,7 +70118,7 @@
         <v>1677</v>
       </c>
       <c r="E35" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F35" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70145,7 +70145,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70190,7 +70190,7 @@
         <v>1677</v>
       </c>
       <c r="E36" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F36" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70217,7 +70217,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70262,7 +70262,7 @@
         <v>1677</v>
       </c>
       <c r="E37" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F37" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70289,7 +70289,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70334,7 +70334,7 @@
         <v>1677</v>
       </c>
       <c r="E38" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F38" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70361,7 +70361,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70406,7 +70406,7 @@
         <v>1677</v>
       </c>
       <c r="E39" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F39" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70433,7 +70433,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O39" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70478,7 +70478,7 @@
         <v>1677</v>
       </c>
       <c r="E40" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F40" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70505,7 +70505,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70550,7 +70550,7 @@
         <v>1677</v>
       </c>
       <c r="E41" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F41" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70577,7 +70577,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70622,7 +70622,7 @@
         <v>1677</v>
       </c>
       <c r="E42" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F42" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70649,7 +70649,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O42" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70694,7 +70694,7 @@
         <v>1677</v>
       </c>
       <c r="E43" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F43" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70721,7 +70721,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O43" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70766,7 +70766,7 @@
         <v>1677</v>
       </c>
       <c r="E44" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F44" s="7">
         <v>6.5000000000000002E-2</v>
@@ -70793,7 +70793,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>1678</v>
+        <v>1721</v>
       </c>
       <c r="O44" s="11" t="str">
         <f t="shared" si="0"/>
@@ -70870,51 +70870,10 @@
     <hyperlink ref="D39" r:id="rId42"/>
     <hyperlink ref="D41" r:id="rId43"/>
     <hyperlink ref="D43" r:id="rId44"/>
-    <hyperlink ref="N3" r:id="rId45"/>
-    <hyperlink ref="N4" r:id="rId46"/>
-    <hyperlink ref="N6" r:id="rId47"/>
-    <hyperlink ref="N8" r:id="rId48"/>
-    <hyperlink ref="N10" r:id="rId49"/>
-    <hyperlink ref="N12" r:id="rId50"/>
-    <hyperlink ref="N14" r:id="rId51"/>
-    <hyperlink ref="N16" r:id="rId52"/>
-    <hyperlink ref="N18" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="N22" r:id="rId55"/>
-    <hyperlink ref="N24" r:id="rId56"/>
-    <hyperlink ref="N26" r:id="rId57"/>
-    <hyperlink ref="N28" r:id="rId58"/>
-    <hyperlink ref="N30" r:id="rId59"/>
-    <hyperlink ref="N32" r:id="rId60"/>
-    <hyperlink ref="N34" r:id="rId61"/>
-    <hyperlink ref="N36" r:id="rId62"/>
-    <hyperlink ref="N38" r:id="rId63"/>
-    <hyperlink ref="N40" r:id="rId64"/>
-    <hyperlink ref="N42" r:id="rId65"/>
-    <hyperlink ref="N44" r:id="rId66"/>
-    <hyperlink ref="N5" r:id="rId67"/>
-    <hyperlink ref="N7" r:id="rId68"/>
-    <hyperlink ref="N9" r:id="rId69"/>
-    <hyperlink ref="N11" r:id="rId70"/>
-    <hyperlink ref="N13" r:id="rId71"/>
-    <hyperlink ref="N15" r:id="rId72"/>
-    <hyperlink ref="N17" r:id="rId73"/>
-    <hyperlink ref="N19" r:id="rId74"/>
-    <hyperlink ref="N21" r:id="rId75"/>
-    <hyperlink ref="N23" r:id="rId76"/>
-    <hyperlink ref="N25" r:id="rId77"/>
-    <hyperlink ref="N27" r:id="rId78"/>
-    <hyperlink ref="N29" r:id="rId79"/>
-    <hyperlink ref="N31" r:id="rId80"/>
-    <hyperlink ref="N33" r:id="rId81"/>
-    <hyperlink ref="N35" r:id="rId82"/>
-    <hyperlink ref="N37" r:id="rId83"/>
-    <hyperlink ref="N39" r:id="rId84"/>
-    <hyperlink ref="N41" r:id="rId85"/>
-    <hyperlink ref="N43" r:id="rId86"/>
-    <hyperlink ref="A1" r:id="rId87" display="\\aibsdata\aics\AssayDevelopment\Analysis\toLiya\mini_pipeline_delivery_V22_201611\20160705_I01\nuc_cell_segmentation"/>
+    <hyperlink ref="A1" r:id="rId45" display="\\aibsdata\aics\AssayDevelopment\Analysis\toLiya\mini_pipeline_delivery_V22_201611\20160705_I01\nuc_cell_segmentation"/>
+    <hyperlink ref="N3:N44" r:id="rId46" display="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_10_Nuc_Cell_Seg_For_Release_Group_1\20160908_C02\nuc_cell_segmentation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId88"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId47"/>
 </worksheet>
 </file>